--- a/data/trans_dic/P44A$analisis-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44A$analisis-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,17 +686,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,2</t>
+          <t>0,0; 59,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 37,27</t>
+          <t>4,53; 39,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,41</t>
+          <t>0,0; 8,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,34 +706,34 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,36; 55,83</t>
+          <t>6,42; 55,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 14,12</t>
+          <t>1,46; 14,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,47</t>
+          <t>0,0; 33,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,91; 35,4</t>
+          <t>9,7; 37,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 7,17</t>
+          <t>1,29; 7,24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 38,06</t>
+          <t>3,96; 39,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,49; 67,15</t>
+          <t>7,81; 67,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,6; 46,84</t>
+          <t>23,19; 48,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 35,83</t>
+          <t>4,58; 40,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,63</t>
+          <t>0,0; 77,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,97; 42,7</t>
+          <t>19,82; 42,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,95; 30,09</t>
+          <t>6,49; 30,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,58; 54,61</t>
+          <t>6,62; 55,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,18; 41,96</t>
+          <t>24,91; 41,9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,35; 100,0</t>
+          <t>32,23; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,69; 74,75</t>
+          <t>33,43; 75,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 15,98</t>
+          <t>3,42; 15,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,42; 74,33</t>
+          <t>19,99; 75,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,58; 89,67</t>
+          <t>42,49; 90,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 7,56</t>
+          <t>0,69; 7,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,99; 80,53</t>
+          <t>36,95; 80,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>44,69; 75,34</t>
+          <t>44,29; 75,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 9,67</t>
+          <t>2,77; 9,5</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,32; 78,56</t>
+          <t>15,99; 88,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,98; 48,87</t>
+          <t>14,03; 47,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 11,09</t>
+          <t>1,08; 10,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,66</t>
+          <t>0,0; 43,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,07; 53,88</t>
+          <t>10,94; 53,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 8,64</t>
+          <t>0,92; 8,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,45; 51,07</t>
+          <t>13,41; 51,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,52; 44,66</t>
+          <t>17,2; 44,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 7,35</t>
+          <t>1,71; 7,24</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,95</t>
+          <t>0,0; 84,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1135,12 +1136,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 28,55</t>
+          <t>3,47; 29,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,59; 83,63</t>
+          <t>15,62; 83,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,29 +1151,29 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,72; 24,53</t>
+          <t>2,66; 25,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,6; 74,62</t>
+          <t>16,52; 68,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,24; 85,89</t>
+          <t>14,14; 85,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 20,86</t>
+          <t>5,22; 22,23</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,81; 65,73</t>
+          <t>9,81; 76,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,05</t>
+          <t>0,0; 52,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,37; 27,07</t>
+          <t>8,18; 27,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,58; 100,0</t>
+          <t>17,76; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,91; 76,91</t>
+          <t>12,0; 76,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,68; 19,7</t>
+          <t>3,96; 19,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,51; 73,19</t>
+          <t>20,18; 73,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,84; 52,59</t>
+          <t>10,71; 55,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,63; 20,0</t>
+          <t>7,32; 19,82</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>37,73; 92,83</t>
+          <t>35,34; 92,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>36,65; 68,17</t>
+          <t>37,46; 69,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,84; 31,07</t>
+          <t>15,28; 30,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,3; 77,83</t>
+          <t>25,67; 74,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,11; 54,32</t>
+          <t>16,14; 52,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 13,44</t>
+          <t>5,26; 13,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>39,42; 76,19</t>
+          <t>39,19; 76,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>31,83; 56,27</t>
+          <t>32,69; 57,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,17; 19,65</t>
+          <t>11,35; 20,26</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,64; 54,43</t>
+          <t>12,35; 51,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12,87; 46,83</t>
+          <t>11,92; 48,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,37; 91,22</t>
+          <t>6,61; 92,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,08; 56,9</t>
+          <t>7,19; 57,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,5</t>
+          <t>0,0; 46,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,95; 22,01</t>
+          <t>12,34; 22,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,69; 45,98</t>
+          <t>15,34; 46,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,63; 37,9</t>
+          <t>9,26; 38,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,74; 86,97</t>
+          <t>11,59; 85,04</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>28,55; 47,92</t>
+          <t>27,99; 47,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>29,02; 44,46</t>
+          <t>29,1; 44,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,64; 74,17</t>
+          <t>12,88; 74,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22,73; 42,18</t>
+          <t>23,71; 41,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,02; 43,69</t>
+          <t>25,43; 44,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,19; 13,45</t>
+          <t>9,24; 13,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>27,88; 41,26</t>
+          <t>28,24; 41,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>29,82; 41,6</t>
+          <t>29,93; 41,98</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11,91; 63,27</t>
+          <t>11,88; 60,49</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han realizado, al menos, un análisis de sangre para detectar cáncer de cólon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3865</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1692</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7749</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3713</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4136</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1060; 9249</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6201</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1890</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1014; 8770</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>514; 4990</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6046</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3799; 14795</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1395; 7855</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2883</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21545</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3003</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11963</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3879</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>33508</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>956; 9537</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>728; 6283</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14492; 30529</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>935; 8296</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4410</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7832; 16660</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2891; 13464</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>995; 8395</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25404; 42735</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7113</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11291</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4389</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6177</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14051</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1587</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13290</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25343</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5976</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2971; 9219</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6982; 15823</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1941; 8557</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2661; 10084</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8477; 18111</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>387; 4078</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8325; 18231</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18088; 30972</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3121; 10698</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>5325</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7809</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2150</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5802</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7474</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13611</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4029</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1746; 9675</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3651; 12326</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>570; 5485</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5925</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2234; 10866</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>546; 4828</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3298; 12577</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>7987; 20601</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1913; 8086</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2180</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1565</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3240</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1475</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5420</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3035</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3040</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5309</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2972</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>446; 3787</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1026; 5497</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3989</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>371; 3580</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2125; 8750</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>985; 5976</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1400; 5960</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2986</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6096</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3319</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2866</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7256</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5282</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8961</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>908; 7053</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5493</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3187; 10601</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1117; 6292</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1032; 6622</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1211; 5810</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3136; 11391</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2035; 10634</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5084; 13770</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>10572</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>21337</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>23651</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>10672</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>9040</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>9915</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>21245</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>30377</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>33566</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>5550; 14562</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>15104; 28120</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>16140; 31956</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>5281; 15410</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>4550; 14917</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>5999; 15092</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14218; 27634</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>22400; 39340</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>24933; 44505</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>7825</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>7110</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>254993</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1342</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>22105</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>12085</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>8452</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>277098</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>3323; 13877</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3147; 12930</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>24715; 344515</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1082; 8642</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6272</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>16060; 29038</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>6436; 19343</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>3692; 15174</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>58445; 428657</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>41070</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>58240</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>315969</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>33771</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>39488</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>53924</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>74842</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>97728</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>369892</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>30607; 52072</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>46469; 70793</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>100031; 577175</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>25357; 44873</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>29533; 51612</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>44190; 64092</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>61085; 90565</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>82559; 115787</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>149064; 759094</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44A$analisis-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44A$analisis-Provincia-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que le han realizado, al menos, un análisis de sangre para detectar cáncer de cólon</t>
+          <t>Población a la que le han realizado al menos un análisis de sangre para detectar cáncer de cólon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1670,7 +1670,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que le han realizado, al menos, un análisis de sangre para detectar cáncer de cólon</t>
+          <t>Población a la que le han realizado al menos un análisis de sangre para detectar cáncer de cólon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
